--- a/assets/lizhi/results/lizhi.xlsx
+++ b/assets/lizhi/results/lizhi.xlsx
@@ -382,9 +382,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -448,10 +445,10 @@
         <v>出手即赚，零风险【已完结】</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>11377</v>
+        <v>13676</v>
       </c>
       <c r="J2" t="str">
         <v>副业赚钱商学院</v>
@@ -489,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>6733</v>
+        <v>7854</v>
       </c>
       <c r="J3" t="str">
         <v>锤炼</v>
@@ -527,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>6315</v>
+        <v>6643</v>
       </c>
       <c r="J4" t="str">
         <v>生活家课堂</v>
@@ -565,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>8293</v>
+        <v>8310</v>
       </c>
       <c r="J5" t="str">
         <v>纽诺育儿</v>
@@ -600,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>14755</v>
+        <v>14766</v>
       </c>
       <c r="J6" t="str">
         <v>双向养育</v>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32623</v>
+        <v>32638</v>
       </c>
       <c r="J7" t="str">
         <v>进步空间XL</v>
@@ -676,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>83253</v>
+        <v>83319</v>
       </c>
       <c r="J8" t="str">
         <v>家长必读讲堂</v>
@@ -714,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <v>29257</v>
+        <v>29314</v>
       </c>
       <c r="J9" t="str">
         <v>课官</v>
@@ -752,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="I10">
-        <v>81067</v>
+        <v>81097</v>
       </c>
       <c r="J10" t="str">
         <v>蒲公英分享会</v>
@@ -790,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="I11">
-        <v>45374</v>
+        <v>45461</v>
       </c>
       <c r="J11" t="str">
         <v>家长必读讲堂</v>
@@ -828,7 +825,7 @@
         <v>45</v>
       </c>
       <c r="I12">
-        <v>68947</v>
+        <v>69091</v>
       </c>
       <c r="J12" t="str">
         <v>三顿</v>
@@ -866,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>56838</v>
+        <v>56898</v>
       </c>
       <c r="J13" t="str">
         <v>生活家课堂</v>
@@ -904,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>25871</v>
+        <v>25946</v>
       </c>
       <c r="J14" t="str">
         <v>瑜伽乐园</v>
@@ -942,7 +939,7 @@
         <v>69</v>
       </c>
       <c r="I15">
-        <v>6312</v>
+        <v>6325</v>
       </c>
       <c r="J15" t="str">
         <v>宝贝学堂</v>
@@ -980,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>55024</v>
+        <v>55232</v>
       </c>
       <c r="J16" t="str">
         <v>树獭先生</v>
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>51237</v>
+        <v>51321</v>
       </c>
       <c r="J17" t="str">
         <v>李柘远LEO</v>
@@ -1056,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>60606</v>
+        <v>60659</v>
       </c>
       <c r="J18" t="str">
         <v>AFTER6工作室</v>
@@ -1094,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="I19">
-        <v>20102</v>
+        <v>20116</v>
       </c>
       <c r="J19" t="str">
         <v>弗兰克</v>
@@ -1132,7 +1129,7 @@
         <v>45</v>
       </c>
       <c r="I20">
-        <v>52634</v>
+        <v>52682</v>
       </c>
       <c r="J20" t="str">
         <v>青春期家庭教育课</v>
@@ -1170,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>571321</v>
+        <v>573298</v>
       </c>
       <c r="J21" t="str">
         <v>桂妃读书</v>
@@ -1208,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="I22">
-        <v>61180</v>
+        <v>61241</v>
       </c>
       <c r="J22" t="str">
         <v>早教老师羊羊妈</v>
@@ -1246,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="I23">
-        <v>38363</v>
+        <v>38390</v>
       </c>
       <c r="J23" t="str">
         <v>早教老师羊羊妈</v>
@@ -1284,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="I24">
-        <v>125824</v>
+        <v>125874</v>
       </c>
       <c r="J24" t="str">
         <v>科学家庭育儿</v>
@@ -1322,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="I25">
-        <v>60687</v>
+        <v>60811</v>
       </c>
       <c r="J25" t="str">
         <v>减肥训练营</v>
@@ -1360,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>100455</v>
+        <v>100807</v>
       </c>
       <c r="J26" t="str">
         <v>生活家课堂</v>
@@ -1398,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>4042</v>
+        <v>4080</v>
       </c>
       <c r="J27" t="str">
         <v>书虫Live</v>
@@ -1436,7 +1433,7 @@
         <v>82</v>
       </c>
       <c r="I28">
-        <v>60821</v>
+        <v>61128</v>
       </c>
       <c r="J28" t="str">
         <v>有声说开讲</v>
@@ -1474,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="I29">
-        <v>8413</v>
+        <v>8418</v>
       </c>
       <c r="J29" t="str">
         <v>十七朵花</v>
@@ -1512,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <v>8896</v>
+        <v>8923</v>
       </c>
       <c r="J30" t="str">
         <v>慢时光</v>
@@ -1550,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <v>35576</v>
+        <v>36166</v>
       </c>
       <c r="J31" t="str">
         <v>课官</v>
@@ -1588,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="I32">
-        <v>90004</v>
+        <v>90061</v>
       </c>
       <c r="J32" t="str">
         <v>课官</v>
@@ -1626,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>27134</v>
+        <v>27168</v>
       </c>
       <c r="J33" t="str">
         <v>四月情感课堂</v>
@@ -1664,7 +1661,7 @@
         <v>8</v>
       </c>
       <c r="I34">
-        <v>66903</v>
+        <v>67090</v>
       </c>
       <c r="J34" t="str">
         <v>懂你课堂</v>
@@ -1702,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="I35">
-        <v>31139</v>
+        <v>31163</v>
       </c>
       <c r="J35" t="str">
         <v>美俏明星微课堂</v>
@@ -1740,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="I36">
-        <v>30991</v>
+        <v>31061</v>
       </c>
       <c r="J36" t="str">
         <v>宝贝学堂</v>
@@ -1778,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="I37">
-        <v>12275</v>
+        <v>12302</v>
       </c>
       <c r="J37" t="str">
         <v>Maggie麻麻陪你学英语</v>
@@ -1816,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>77092</v>
+        <v>77152</v>
       </c>
       <c r="J38" t="str">
         <v>端银</v>
@@ -1854,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="I39">
-        <v>27488</v>
+        <v>27557</v>
       </c>
       <c r="J39" t="str">
         <v>AIRPHOTO</v>
@@ -1892,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="I40">
-        <v>108572</v>
+        <v>108637</v>
       </c>
       <c r="J40" t="str">
         <v>幸福上上签</v>
@@ -1930,7 +1927,7 @@
         <v>14</v>
       </c>
       <c r="I41">
-        <v>10629</v>
+        <v>10690</v>
       </c>
       <c r="J41" t="str">
         <v>西瓜情感 🍉</v>
@@ -1968,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="I42">
-        <v>80149</v>
+        <v>80189</v>
       </c>
       <c r="J42" t="str">
         <v>美的专业主义</v>
@@ -2006,7 +2003,7 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>203740</v>
+        <v>204135</v>
       </c>
       <c r="J43" t="str">
         <v>副业赚钱商学院</v>
@@ -2044,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="I44">
-        <v>157086</v>
+        <v>157549</v>
       </c>
       <c r="J44" t="str">
         <v>文豪金融</v>
@@ -2082,7 +2079,7 @@
         <v>20</v>
       </c>
       <c r="I45">
-        <v>44752</v>
+        <v>44801</v>
       </c>
       <c r="J45" t="str">
         <v>梦想花开</v>
@@ -2120,7 +2117,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>39341</v>
+        <v>39374</v>
       </c>
       <c r="J46" t="str">
         <v>生活家课堂</v>
@@ -2158,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="I47">
-        <v>41553</v>
+        <v>41587</v>
       </c>
       <c r="J47" t="str">
         <v>科学家庭育儿</v>
@@ -2196,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="I48">
-        <v>128352</v>
+        <v>129011</v>
       </c>
       <c r="J48" t="str">
         <v>星慧微课</v>
@@ -2234,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="I49">
-        <v>26224</v>
+        <v>26236</v>
       </c>
       <c r="J49" t="str">
         <v>四月情感课堂</v>
@@ -2272,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="I50">
-        <v>5526</v>
+        <v>5542</v>
       </c>
       <c r="J50" t="str">
         <v>课官</v>
@@ -2310,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="I51">
-        <v>9118</v>
+        <v>9138</v>
       </c>
       <c r="J51" t="str">
         <v>减肥训练营</v>
@@ -2348,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="I52">
-        <v>22693</v>
+        <v>22780</v>
       </c>
       <c r="J52" t="str">
         <v>星慧微课</v>
@@ -2386,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="I53">
-        <v>47310</v>
+        <v>47362</v>
       </c>
       <c r="J53" t="str">
         <v>幸福上上签</v>
@@ -2424,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="I54">
-        <v>65791</v>
+        <v>65964</v>
       </c>
       <c r="J54" t="str">
         <v>闺蜜大课堂</v>
@@ -2459,10 +2456,10 @@
         <v>一套被百度、招商银行、壳牌等500强职场达人反复运用、验证的“策略识人术”，结合工作、生活8大模块24个场景，学会读懂身边人，迅速获取优质人脉</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I55">
-        <v>345276</v>
+        <v>347274</v>
       </c>
       <c r="J55" t="str">
         <v>梦想花开</v>
@@ -2500,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="I56">
-        <v>33437</v>
+        <v>33514</v>
       </c>
       <c r="J56" t="str">
         <v>语智公众演讲-口才训练营</v>
@@ -2538,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="I57">
-        <v>75278</v>
+        <v>75357</v>
       </c>
       <c r="J57" t="str">
         <v>老光私享</v>
@@ -2576,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="I58">
-        <v>163973</v>
+        <v>165049</v>
       </c>
       <c r="J58" t="str">
         <v>AFTER6工作室</v>
@@ -2614,7 +2611,7 @@
         <v>103</v>
       </c>
       <c r="I59">
-        <v>328504</v>
+        <v>329421</v>
       </c>
       <c r="J59" t="str">
         <v>用得上的商学课</v>
@@ -2652,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="I60">
-        <v>79385</v>
+        <v>79775</v>
       </c>
       <c r="J60" t="str">
         <v>前橙课堂</v>
@@ -2690,7 +2687,7 @@
         <v>14</v>
       </c>
       <c r="I61">
-        <v>26995</v>
+        <v>27033</v>
       </c>
       <c r="J61" t="str">
         <v>懂你课堂</v>
@@ -2728,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="I62">
-        <v>10155</v>
+        <v>10188</v>
       </c>
       <c r="J62" t="str">
         <v>手机摄影研究院</v>
@@ -2763,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="I63">
-        <v>106713</v>
+        <v>106988</v>
       </c>
       <c r="J63" t="str">
         <v>生活家课堂</v>
@@ -2801,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="I64">
-        <v>60587</v>
+        <v>60657</v>
       </c>
       <c r="J64" t="str">
         <v>三好课堂</v>
@@ -2839,7 +2836,7 @@
         <v>31</v>
       </c>
       <c r="I65">
-        <v>806255</v>
+        <v>813652</v>
       </c>
       <c r="J65" t="str">
         <v>桂妃读书</v>
@@ -2877,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="I66">
-        <v>56142</v>
+        <v>56206</v>
       </c>
       <c r="J66" t="str">
         <v>运营深度精选</v>
@@ -2912,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="I67">
-        <v>7867</v>
+        <v>7886</v>
       </c>
       <c r="J67" t="str">
         <v>优蓓家长学院直播间</v>
@@ -2950,7 +2947,7 @@
         <v>8</v>
       </c>
       <c r="I68">
-        <v>27570</v>
+        <v>27624</v>
       </c>
       <c r="J68" t="str">
         <v>顾一宸</v>
@@ -2985,7 +2982,7 @@
         <v>10</v>
       </c>
       <c r="I69">
-        <v>55245</v>
+        <v>56046</v>
       </c>
       <c r="J69" t="str">
         <v>AFTER6工作室</v>
@@ -3023,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="I70">
-        <v>7453</v>
+        <v>7471</v>
       </c>
       <c r="J70" t="str">
         <v>汇财</v>
@@ -3061,7 +3058,7 @@
         <v>33</v>
       </c>
       <c r="I71">
-        <v>18324</v>
+        <v>18376</v>
       </c>
       <c r="J71" t="str">
         <v>大红妈妈大本营</v>
@@ -3099,7 +3096,7 @@
         <v>12</v>
       </c>
       <c r="I72">
-        <v>8252</v>
+        <v>8307</v>
       </c>
       <c r="J72" t="str">
         <v>博雅商学院</v>
@@ -3137,7 +3134,7 @@
         <v>13</v>
       </c>
       <c r="I73">
-        <v>88782</v>
+        <v>89068</v>
       </c>
       <c r="J73" t="str">
         <v>每日瑜伽</v>
@@ -3175,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="I74">
-        <v>71586</v>
+        <v>71651</v>
       </c>
       <c r="J74" t="str">
         <v>牛文的直播间</v>
@@ -3213,7 +3210,7 @@
         <v>121</v>
       </c>
       <c r="I75">
-        <v>131105</v>
+        <v>131351</v>
       </c>
       <c r="J75" t="str">
         <v>友邻优课</v>
@@ -3251,7 +3248,7 @@
         <v>8</v>
       </c>
       <c r="I76">
-        <v>229127</v>
+        <v>229388</v>
       </c>
       <c r="J76" t="str">
         <v>文豪金融</v>
@@ -3289,7 +3286,7 @@
         <v>14</v>
       </c>
       <c r="I77">
-        <v>10129</v>
+        <v>10143</v>
       </c>
       <c r="J77" t="str">
         <v>她课</v>
@@ -3327,7 +3324,7 @@
         <v>24</v>
       </c>
       <c r="I78">
-        <v>67674</v>
+        <v>67857</v>
       </c>
       <c r="J78" t="str">
         <v>集课知识</v>
@@ -3365,7 +3362,7 @@
         <v>64</v>
       </c>
       <c r="I79">
-        <v>1996</v>
+        <v>2015</v>
       </c>
       <c r="J79" t="str">
         <v>量子学派</v>
@@ -3403,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>12732</v>
+        <v>12737</v>
       </c>
       <c r="J80" t="str">
         <v>苹果学院</v>
@@ -3441,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="I81">
-        <v>19457</v>
+        <v>19551</v>
       </c>
       <c r="J81" t="str">
         <v>生活家课堂</v>
@@ -3479,7 +3476,7 @@
         <v>17</v>
       </c>
       <c r="I82">
-        <v>11766</v>
+        <v>11826</v>
       </c>
       <c r="J82" t="str">
         <v>轻养学堂</v>
@@ -3517,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="I83">
-        <v>29295</v>
+        <v>29397</v>
       </c>
       <c r="J83" t="str">
         <v>Vincent的健康Idea</v>
@@ -3555,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="I84">
-        <v>60284</v>
+        <v>60477</v>
       </c>
       <c r="J84" t="str">
         <v>幸福上上签</v>
@@ -3593,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="I85">
-        <v>26690</v>
+        <v>27191</v>
       </c>
       <c r="J85" t="str">
         <v>艺术家课堂</v>
@@ -3631,7 +3628,7 @@
         <v>9</v>
       </c>
       <c r="I86">
-        <v>66822</v>
+        <v>66985</v>
       </c>
       <c r="J86" t="str">
         <v>树獭先生</v>
@@ -3669,7 +3666,7 @@
         <v>10</v>
       </c>
       <c r="I87">
-        <v>326856</v>
+        <v>328879</v>
       </c>
       <c r="J87" t="str">
         <v>先知课堂</v>
@@ -3707,7 +3704,7 @@
         <v>20</v>
       </c>
       <c r="I88">
-        <v>75205</v>
+        <v>75381</v>
       </c>
       <c r="J88" t="str">
         <v>生活家课堂</v>
@@ -3745,7 +3742,7 @@
         <v>19</v>
       </c>
       <c r="I89">
-        <v>12152</v>
+        <v>12244</v>
       </c>
       <c r="J89" t="str">
         <v>大胡子说房</v>
@@ -3783,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="I90">
-        <v>16375</v>
+        <v>16392</v>
       </c>
       <c r="J90" t="str">
         <v>懂你课堂</v>
@@ -3821,7 +3818,7 @@
         <v>168</v>
       </c>
       <c r="I91">
-        <v>48682</v>
+        <v>48848</v>
       </c>
       <c r="J91" t="str">
         <v>礼商学院</v>
@@ -3859,7 +3856,7 @@
         <v>13</v>
       </c>
       <c r="I92">
-        <v>12218</v>
+        <v>12267</v>
       </c>
       <c r="J92" t="str">
         <v>优蓓家长学院直播间</v>
@@ -3897,7 +3894,7 @@
         <v>39</v>
       </c>
       <c r="I93">
-        <v>44013</v>
+        <v>44060</v>
       </c>
       <c r="J93" t="str">
         <v>优乐说学院</v>
@@ -3935,7 +3932,7 @@
         <v>10</v>
       </c>
       <c r="I94">
-        <v>48153</v>
+        <v>48203</v>
       </c>
       <c r="J94" t="str">
         <v>梦想花开</v>
@@ -3973,7 +3970,7 @@
         <v>90</v>
       </c>
       <c r="I95">
-        <v>24988</v>
+        <v>25243</v>
       </c>
       <c r="J95" t="str">
         <v>Alef-RAFA阿拉法犹太家庭教育</v>
@@ -4011,7 +4008,7 @@
         <v>28</v>
       </c>
       <c r="I96">
-        <v>25333</v>
+        <v>25455</v>
       </c>
       <c r="J96" t="str">
         <v>生活家课堂</v>
@@ -4049,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="I97">
-        <v>51649</v>
+        <v>51730</v>
       </c>
       <c r="J97" t="str">
         <v>清唱女神训练营</v>
@@ -4087,7 +4084,7 @@
         <v>16</v>
       </c>
       <c r="I98">
-        <v>35320</v>
+        <v>35592</v>
       </c>
       <c r="J98" t="str">
         <v>优蓓家长学院直播间</v>
@@ -4122,10 +4119,10 @@
         <v>剑桥大学小克里教你不同场合说地道英语，20个场景，每天1分钟教你说、教你听、叫你用，工作、旅游、交友，交流零障碍！</v>
       </c>
       <c r="H99">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I99">
-        <v>127143</v>
+        <v>129174</v>
       </c>
       <c r="J99" t="str">
         <v>集课知识</v>
@@ -4163,7 +4160,7 @@
         <v>78</v>
       </c>
       <c r="I100">
-        <v>3764</v>
+        <v>3808</v>
       </c>
       <c r="J100" t="str">
         <v>宝贝学堂</v>
@@ -4201,7 +4198,7 @@
         <v>9</v>
       </c>
       <c r="I101">
-        <v>50452</v>
+        <v>50667</v>
       </c>
       <c r="J101" t="str">
         <v>幸福减肥教</v>
@@ -4239,7 +4236,7 @@
         <v>31</v>
       </c>
       <c r="I102">
-        <v>104460</v>
+        <v>105308</v>
       </c>
       <c r="J102" t="str">
         <v>奇计学院</v>
@@ -4277,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="I103">
-        <v>61004</v>
+        <v>61159</v>
       </c>
       <c r="J103" t="str">
         <v>托福口语大圣_那天</v>
@@ -4315,7 +4312,7 @@
         <v>4</v>
       </c>
       <c r="I104">
-        <v>83980</v>
+        <v>84220</v>
       </c>
       <c r="J104" t="str">
         <v>什么课值得学</v>
@@ -4353,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="I105">
-        <v>25939</v>
+        <v>26194</v>
       </c>
       <c r="J105" t="str">
         <v>生活家课堂</v>
@@ -4391,7 +4388,7 @@
         <v>14</v>
       </c>
       <c r="I106">
-        <v>25377</v>
+        <v>25428</v>
       </c>
       <c r="J106" t="str">
         <v>景彤的她创世界</v>
@@ -4429,7 +4426,7 @@
         <v>59</v>
       </c>
       <c r="I107">
-        <v>26350</v>
+        <v>26663</v>
       </c>
       <c r="J107" t="str">
         <v>个人发展学会</v>
@@ -4467,7 +4464,7 @@
         <v>10</v>
       </c>
       <c r="I108">
-        <v>6743</v>
+        <v>6799</v>
       </c>
       <c r="J108" t="str">
         <v>花生微课</v>
@@ -4505,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="I109">
-        <v>8672</v>
+        <v>8693</v>
       </c>
       <c r="J109" t="str">
         <v>同行课堂</v>
@@ -4543,7 +4540,7 @@
         <v>15</v>
       </c>
       <c r="I110">
-        <v>21975</v>
+        <v>22103</v>
       </c>
       <c r="J110" t="str">
         <v>有律</v>
@@ -4581,7 +4578,7 @@
         <v>36</v>
       </c>
       <c r="I111">
-        <v>57018</v>
+        <v>57427</v>
       </c>
       <c r="J111" t="str">
         <v>全能女人修炼站</v>
@@ -4619,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="I112">
-        <v>50292</v>
+        <v>50469</v>
       </c>
       <c r="J112" t="str">
         <v>梦想花开</v>
@@ -4657,7 +4654,7 @@
         <v>30</v>
       </c>
       <c r="I113">
-        <v>14625</v>
+        <v>14673</v>
       </c>
       <c r="J113" t="str">
         <v>梦想花开</v>
@@ -4695,7 +4692,7 @@
         <v>10</v>
       </c>
       <c r="I114">
-        <v>4503</v>
+        <v>4523</v>
       </c>
       <c r="J114" t="str">
         <v>每日瑜伽</v>
@@ -4733,7 +4730,7 @@
         <v>16</v>
       </c>
       <c r="I115">
-        <v>39607</v>
+        <v>39673</v>
       </c>
       <c r="J115" t="str">
         <v>七芊</v>
@@ -4771,7 +4768,7 @@
         <v>11</v>
       </c>
       <c r="I116">
-        <v>15360</v>
+        <v>15464</v>
       </c>
       <c r="J116" t="str">
         <v>飞鲸学堂</v>
@@ -4809,7 +4806,7 @@
         <v>10</v>
       </c>
       <c r="I117">
-        <v>8176</v>
+        <v>8321</v>
       </c>
       <c r="J117" t="str">
         <v>杨丽丽💕</v>
@@ -4847,7 +4844,7 @@
         <v>24</v>
       </c>
       <c r="I118">
-        <v>13294</v>
+        <v>13314</v>
       </c>
       <c r="J118" t="str">
         <v>HELLO爸妈</v>
@@ -4885,7 +4882,7 @@
         <v>9</v>
       </c>
       <c r="I119">
-        <v>34668</v>
+        <v>34737</v>
       </c>
       <c r="J119" t="str">
         <v>AFTER6工作室</v>
@@ -4923,7 +4920,7 @@
         <v>35</v>
       </c>
       <c r="I120">
-        <v>38772</v>
+        <v>39551</v>
       </c>
       <c r="J120" t="str">
         <v>诸葛思远</v>
@@ -4961,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <v>7171</v>
+        <v>7238</v>
       </c>
       <c r="J121" t="str">
         <v>每天进步</v>
@@ -4999,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="I122">
-        <v>14982</v>
+        <v>15002</v>
       </c>
       <c r="J122" t="str">
         <v>奇计学院</v>
@@ -5037,7 +5034,7 @@
         <v>22</v>
       </c>
       <c r="I123">
-        <v>52188</v>
+        <v>52955</v>
       </c>
       <c r="J123" t="str">
         <v>老光私享</v>
@@ -5075,7 +5072,7 @@
         <v>88</v>
       </c>
       <c r="I124">
-        <v>28172</v>
+        <v>28361</v>
       </c>
       <c r="J124" t="str">
         <v>老光私享</v>
@@ -5113,7 +5110,7 @@
         <v>7</v>
       </c>
       <c r="I125">
-        <v>7366</v>
+        <v>7414</v>
       </c>
       <c r="J125" t="str">
         <v>集课知识</v>
@@ -5151,7 +5148,7 @@
         <v>25</v>
       </c>
       <c r="I126">
-        <v>3742</v>
+        <v>3749</v>
       </c>
       <c r="J126" t="str">
         <v>个人发展学会</v>
@@ -5189,7 +5186,7 @@
         <v>31</v>
       </c>
       <c r="I127">
-        <v>265998</v>
+        <v>274142</v>
       </c>
       <c r="J127" t="str">
         <v>媛创Knowledge</v>
@@ -5227,7 +5224,7 @@
         <v>7</v>
       </c>
       <c r="I128">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="J128" t="str">
         <v>西瓜情感 🍉</v>
@@ -5265,7 +5262,7 @@
         <v>14</v>
       </c>
       <c r="I129">
-        <v>52698</v>
+        <v>54342</v>
       </c>
       <c r="J129" t="str">
         <v>优雅课堂</v>
@@ -5303,7 +5300,7 @@
         <v>10</v>
       </c>
       <c r="I130">
-        <v>9791</v>
+        <v>9933</v>
       </c>
       <c r="J130" t="str">
         <v>大师小课</v>
@@ -5341,7 +5338,7 @@
         <v>19</v>
       </c>
       <c r="I131">
-        <v>55868</v>
+        <v>56180</v>
       </c>
       <c r="J131" t="str">
         <v>生活家课堂</v>
@@ -5379,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="I132">
-        <v>9628</v>
+        <v>10255</v>
       </c>
       <c r="J132" t="str">
         <v>梦想花开</v>
@@ -5417,7 +5414,7 @@
         <v>35</v>
       </c>
       <c r="I133">
-        <v>3195</v>
+        <v>3233</v>
       </c>
       <c r="J133" t="str">
         <v>美好时光</v>
@@ -5455,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="I134">
-        <v>62873</v>
+        <v>63838</v>
       </c>
       <c r="J134" t="str">
         <v>AFTER6工作室</v>
@@ -5493,7 +5490,7 @@
         <v>8</v>
       </c>
       <c r="I135">
-        <v>45837</v>
+        <v>45891</v>
       </c>
       <c r="J135" t="str">
         <v>Steven老师</v>
@@ -5531,7 +5528,7 @@
         <v>16</v>
       </c>
       <c r="I136">
-        <v>14322</v>
+        <v>14337</v>
       </c>
       <c r="J136" t="str">
         <v>景彤的她创世界</v>
@@ -5569,7 +5566,7 @@
         <v>9</v>
       </c>
       <c r="I137">
-        <v>96701</v>
+        <v>96790</v>
       </c>
       <c r="J137" t="str">
         <v>课官</v>
@@ -5607,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="I138">
-        <v>84855</v>
+        <v>85571</v>
       </c>
       <c r="J138" t="str">
         <v>轻奢小课</v>
@@ -5645,7 +5642,7 @@
         <v>9</v>
       </c>
       <c r="I139">
-        <v>16523</v>
+        <v>16547</v>
       </c>
       <c r="J139" t="str">
         <v>亲子星球</v>
@@ -5683,7 +5680,7 @@
         <v>17</v>
       </c>
       <c r="I140">
-        <v>14343</v>
+        <v>15057</v>
       </c>
       <c r="J140" t="str">
         <v>前橙课堂</v>
@@ -5721,7 +5718,7 @@
         <v>14</v>
       </c>
       <c r="I141">
-        <v>11592</v>
+        <v>12093</v>
       </c>
       <c r="J141" t="str">
         <v>懂你课堂</v>
@@ -5759,7 +5756,7 @@
         <v>19</v>
       </c>
       <c r="I142">
-        <v>15026</v>
+        <v>15174</v>
       </c>
       <c r="J142" t="str">
         <v>梦想花开</v>
@@ -5797,7 +5794,7 @@
         <v>25</v>
       </c>
       <c r="I143">
-        <v>5766</v>
+        <v>5932</v>
       </c>
       <c r="J143" t="str">
         <v>个人发展学会</v>
@@ -5835,7 +5832,7 @@
         <v>13</v>
       </c>
       <c r="I144">
-        <v>11674</v>
+        <v>11831</v>
       </c>
       <c r="J144" t="str">
         <v>课官</v>
@@ -5873,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="I145">
-        <v>44044</v>
+        <v>44082</v>
       </c>
       <c r="J145" t="str">
         <v>集课知识</v>
@@ -5911,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="I146">
-        <v>347242</v>
+        <v>349022</v>
       </c>
       <c r="J146" t="str">
         <v>智囊圈</v>
@@ -5949,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="I147">
-        <v>200100</v>
+        <v>202538</v>
       </c>
       <c r="J147" t="str">
         <v>斜杠少年老白</v>
@@ -5987,7 +5984,7 @@
         <v>11</v>
       </c>
       <c r="I148">
-        <v>20303</v>
+        <v>20455</v>
       </c>
       <c r="J148" t="str">
         <v>轻奢小课</v>
@@ -6025,7 +6022,7 @@
         <v>27</v>
       </c>
       <c r="I149">
-        <v>60279</v>
+        <v>61117</v>
       </c>
       <c r="J149" t="str">
         <v>陈伟鸿·微课堂</v>
@@ -6063,7 +6060,7 @@
         <v>12</v>
       </c>
       <c r="I150">
-        <v>8111</v>
+        <v>8452</v>
       </c>
       <c r="J150" t="str">
         <v>心之助情感学院</v>
@@ -6101,7 +6098,7 @@
         <v>19</v>
       </c>
       <c r="I151">
-        <v>20730</v>
+        <v>20767</v>
       </c>
       <c r="J151" t="str">
         <v>景彤的她创世界</v>
@@ -6139,7 +6136,7 @@
         <v>15</v>
       </c>
       <c r="I152">
-        <v>74428</v>
+        <v>76277</v>
       </c>
       <c r="J152" t="str">
         <v>狐狸体态</v>
@@ -6177,7 +6174,7 @@
         <v>13</v>
       </c>
       <c r="I153">
-        <v>52734</v>
+        <v>55643</v>
       </c>
       <c r="J153" t="str">
         <v>花生微课</v>
@@ -6215,7 +6212,7 @@
         <v>21</v>
       </c>
       <c r="I154">
-        <v>76525</v>
+        <v>76954</v>
       </c>
       <c r="J154" t="str">
         <v>斜杠少年老白</v>
@@ -6253,7 +6250,7 @@
         <v>7</v>
       </c>
       <c r="I155">
-        <v>101557</v>
+        <v>101738</v>
       </c>
       <c r="J155" t="str">
         <v>课官</v>
@@ -6291,7 +6288,7 @@
         <v>14</v>
       </c>
       <c r="I156">
-        <v>5397</v>
+        <v>5425</v>
       </c>
       <c r="J156" t="str">
         <v>每日瑜伽</v>
@@ -6329,7 +6326,7 @@
         <v>19</v>
       </c>
       <c r="I157">
-        <v>8940</v>
+        <v>9029</v>
       </c>
       <c r="J157" t="str">
         <v>夏莎Sasha老师分享</v>
@@ -6367,7 +6364,7 @@
         <v>20</v>
       </c>
       <c r="I158">
-        <v>13755</v>
+        <v>15113</v>
       </c>
       <c r="J158" t="str">
         <v>K代表</v>
@@ -6405,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="I159">
-        <v>38253</v>
+        <v>38361</v>
       </c>
       <c r="J159" t="str">
         <v>大胡子说房</v>
@@ -6443,7 +6440,7 @@
         <v>18</v>
       </c>
       <c r="I160">
-        <v>16014</v>
+        <v>16174</v>
       </c>
       <c r="J160" t="str">
         <v>升职课运站</v>
@@ -6481,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="I161">
-        <v>21383</v>
+        <v>21436</v>
       </c>
       <c r="J161" t="str">
         <v>生活家课堂</v>
@@ -6519,7 +6516,7 @@
         <v>15</v>
       </c>
       <c r="I162">
-        <v>5690</v>
+        <v>5796</v>
       </c>
       <c r="J162" t="str">
         <v>轻奢小课</v>
@@ -6557,7 +6554,7 @@
         <v>10</v>
       </c>
       <c r="I163">
-        <v>5353</v>
+        <v>5426</v>
       </c>
       <c r="J163" t="str">
         <v>优蓓家长学院直播间</v>
@@ -6592,10 +6589,10 @@
         <v>每周三、五晚八点准时更新</v>
       </c>
       <c r="H164">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I164">
-        <v>19420</v>
+        <v>21420</v>
       </c>
       <c r="J164" t="str">
         <v>个人发展学会</v>
@@ -6630,10 +6627,10 @@
         <v>物超所值，5年创作的整理宝典，12期精美视频课，超100种收纳方法，教你用得上的整理收纳法，让房间变出更大空间。</v>
       </c>
       <c r="H165">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I165">
-        <v>5561</v>
+        <v>5626</v>
       </c>
       <c r="J165" t="str">
         <v>金笔传媒</v>
@@ -6671,7 +6668,7 @@
         <v>5</v>
       </c>
       <c r="I166">
-        <v>8194</v>
+        <v>8244</v>
       </c>
       <c r="J166" t="str">
         <v>运营去哪增长学院</v>
@@ -6709,7 +6706,7 @@
         <v>23</v>
       </c>
       <c r="I167">
-        <v>183493</v>
+        <v>185059</v>
       </c>
       <c r="J167" t="str">
         <v>个人发展学会</v>
@@ -6747,7 +6744,7 @@
         <v>8</v>
       </c>
       <c r="I168">
-        <v>10855</v>
+        <v>11152</v>
       </c>
       <c r="J168" t="str">
         <v>美好时光</v>
@@ -6785,7 +6782,7 @@
         <v>14</v>
       </c>
       <c r="I169">
-        <v>23382</v>
+        <v>24634</v>
       </c>
       <c r="J169" t="str">
         <v>生活家课堂</v>
@@ -6823,7 +6820,7 @@
         <v>35</v>
       </c>
       <c r="I170">
-        <v>7984</v>
+        <v>8774</v>
       </c>
       <c r="J170" t="str">
         <v>美好时光</v>
@@ -6861,7 +6858,7 @@
         <v>20</v>
       </c>
       <c r="I171">
-        <v>32715</v>
+        <v>34678</v>
       </c>
       <c r="J171" t="str">
         <v>老光私享</v>
@@ -6899,7 +6896,7 @@
         <v>20</v>
       </c>
       <c r="I172">
-        <v>8329</v>
+        <v>9339</v>
       </c>
       <c r="J172" t="str">
         <v>我的美丽秘密</v>
@@ -6937,7 +6934,7 @@
         <v>33</v>
       </c>
       <c r="I173">
-        <v>21280</v>
+        <v>22219</v>
       </c>
       <c r="J173" t="str">
         <v>语智公众演讲-口才训练营</v>
@@ -6969,13 +6966,13 @@
         <v>70</v>
       </c>
       <c r="G174" t="str">
-        <v>樊登读书、凯叔讲故事、好未来、新知榜等大咖联合推荐！明星校长马少槟导师以人本主义心理学为理论基础，运用心理咨询技巧，结合80%以上的真实家庭案例，轻松解决父母育儿难题！</v>
+        <v>【即将涨价为99元！！！】樊登读书、凯叔讲故事、好未来、新知榜等大咖联合推荐！明星校长马少槟导师以人本主义心理学为理论基础，运用心理咨询技巧，结合80%以上的真实家庭案例，轻松解决父母育儿难题！</v>
       </c>
       <c r="H174">
         <v>26</v>
       </c>
       <c r="I174">
-        <v>9729</v>
+        <v>11804</v>
       </c>
       <c r="J174" t="str">
         <v>好爸妈学院</v>
@@ -7010,10 +7007,10 @@
         <v>是不是也觉得自己不够好，不够快？本期10个管理方法，30堂课程解读，带你实现看得到的改变。短短10天，成为你所向往的精致女性。</v>
       </c>
       <c r="H175">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I175">
-        <v>30974</v>
+        <v>31217</v>
       </c>
       <c r="J175" t="str">
         <v>Momself</v>
@@ -7051,7 +7048,7 @@
         <v>36</v>
       </c>
       <c r="I176">
-        <v>222446</v>
+        <v>224301</v>
       </c>
       <c r="J176" t="str">
         <v>星慧微课</v>
@@ -7089,7 +7086,7 @@
         <v>30</v>
       </c>
       <c r="I177">
-        <v>15861</v>
+        <v>16252</v>
       </c>
       <c r="J177" t="str">
         <v>美好时光</v>
@@ -7127,7 +7124,7 @@
         <v>5</v>
       </c>
       <c r="I178">
-        <v>18059</v>
+        <v>18514</v>
       </c>
       <c r="J178" t="str">
         <v>幸福上上签</v>
@@ -7165,7 +7162,7 @@
         <v>25</v>
       </c>
       <c r="I179">
-        <v>54128</v>
+        <v>54204</v>
       </c>
       <c r="J179" t="str">
         <v>壹课</v>
@@ -7203,7 +7200,7 @@
         <v>17</v>
       </c>
       <c r="I180">
-        <v>37340</v>
+        <v>41268</v>
       </c>
       <c r="J180" t="str">
         <v>优雅课堂</v>
@@ -7238,10 +7235,10 @@
         <v>人人都可复制执行，14堂落地实操课程+免费学习社群+“拆解书”模板+独家投稿资源+免费加入“糖豆学院写手群”。</v>
       </c>
       <c r="H181">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I181">
-        <v>11607</v>
+        <v>11748</v>
       </c>
       <c r="J181" t="str">
         <v>糖豆学院</v>
@@ -7279,7 +7276,7 @@
         <v>15</v>
       </c>
       <c r="I182">
-        <v>11087</v>
+        <v>11117</v>
       </c>
       <c r="J182" t="str">
         <v>爱美研究院</v>
@@ -7317,7 +7314,7 @@
         <v>13</v>
       </c>
       <c r="I183">
-        <v>4112</v>
+        <v>4341</v>
       </c>
       <c r="J183" t="str">
         <v>景彤的她创世界</v>
@@ -7355,7 +7352,7 @@
         <v>7</v>
       </c>
       <c r="I184">
-        <v>5521</v>
+        <v>5681</v>
       </c>
       <c r="J184" t="str">
         <v>思渔情感学院</v>
@@ -7393,7 +7390,7 @@
         <v>36</v>
       </c>
       <c r="I185">
-        <v>4813</v>
+        <v>5468</v>
       </c>
       <c r="J185" t="str">
         <v>干呗</v>
@@ -7431,7 +7428,7 @@
         <v>15</v>
       </c>
       <c r="I186">
-        <v>6443</v>
+        <v>7297</v>
       </c>
       <c r="J186" t="str">
         <v>AFTER6工作室</v>
@@ -7469,7 +7466,7 @@
         <v>12</v>
       </c>
       <c r="I187">
-        <v>9550</v>
+        <v>9607</v>
       </c>
       <c r="J187" t="str">
         <v>三好课堂</v>
@@ -7507,7 +7504,7 @@
         <v>12</v>
       </c>
       <c r="I188">
-        <v>24365</v>
+        <v>24818</v>
       </c>
       <c r="J188" t="str">
         <v>美好时光</v>
